--- a/df.EU.xlsx
+++ b/df.EU.xlsx
@@ -1454,7 +1454,7 @@
         <v>0.875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.371</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="3">
@@ -1483,7 +1483,7 @@
         <v>1.295</v>
       </c>
       <c r="I3" t="n">
-        <v>0.415</v>
+        <v>-0.757</v>
       </c>
     </row>
     <row r="4">
@@ -1512,7 +1512,7 @@
         <v>1.536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.282</v>
+        <v>-1.103</v>
       </c>
     </row>
     <row r="5">
@@ -1541,7 +1541,7 @@
         <v>1.352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.447</v>
+        <v>-0.747</v>
       </c>
     </row>
     <row r="6">
@@ -1570,7 +1570,7 @@
         <v>1.022</v>
       </c>
       <c r="I6" t="n">
-        <v>0.617</v>
+        <v>-0.391</v>
       </c>
     </row>
     <row r="7">
@@ -1599,7 +1599,7 @@
         <v>0.873</v>
       </c>
       <c r="I7" t="n">
-        <v>0.573</v>
+        <v>-0.373</v>
       </c>
     </row>
     <row r="8">
@@ -1628,7 +1628,7 @@
         <v>1.162</v>
       </c>
       <c r="I8" t="n">
-        <v>0.28</v>
+        <v>-0.837</v>
       </c>
     </row>
     <row r="9">
@@ -1657,7 +1657,7 @@
         <v>1.131</v>
       </c>
       <c r="I9" t="n">
-        <v>0.433</v>
+        <v>-0.641</v>
       </c>
     </row>
     <row r="10">
@@ -1686,7 +1686,7 @@
         <v>1.081</v>
       </c>
       <c r="I10" t="n">
-        <v>0.364</v>
+        <v>-0.687</v>
       </c>
     </row>
     <row r="11">
@@ -1715,7 +1715,7 @@
         <v>0.881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.608</v>
+        <v>-0.345</v>
       </c>
     </row>
     <row r="12">
@@ -1744,7 +1744,7 @@
         <v>1.318</v>
       </c>
       <c r="I12" t="n">
-        <v>0.357</v>
+        <v>-0.847</v>
       </c>
     </row>
     <row r="13">
@@ -1773,7 +1773,7 @@
         <v>0.947</v>
       </c>
       <c r="I13" t="n">
-        <v>0.704</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="14">
@@ -1802,7 +1802,7 @@
         <v>0.982</v>
       </c>
       <c r="I14" t="n">
-        <v>0.371</v>
+        <v>-0.618</v>
       </c>
     </row>
     <row r="15">
@@ -1831,7 +1831,7 @@
         <v>1.238</v>
       </c>
       <c r="I15" t="n">
-        <v>0.404</v>
+        <v>-0.738</v>
       </c>
     </row>
     <row r="16">
@@ -1860,7 +1860,7 @@
         <v>1.212</v>
       </c>
       <c r="I16" t="n">
-        <v>0.257</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="17">
@@ -1889,7 +1889,7 @@
         <v>1.105</v>
       </c>
       <c r="I17" t="n">
-        <v>0.408</v>
+        <v>-0.654</v>
       </c>
     </row>
     <row r="18">
@@ -1918,7 +1918,7 @@
         <v>1.314</v>
       </c>
       <c r="I18" t="n">
-        <v>0.292</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +1947,7 @@
         <v>1.018</v>
       </c>
       <c r="I19" t="n">
-        <v>0.724</v>
+        <v>-0.281</v>
       </c>
     </row>
     <row r="20">
@@ -1976,7 +1976,7 @@
         <v>1.255</v>
       </c>
       <c r="I20" t="n">
-        <v>0.569</v>
+        <v>-0.541</v>
       </c>
     </row>
     <row r="21">
@@ -2005,7 +2005,7 @@
         <v>1.943</v>
       </c>
       <c r="I21" t="n">
-        <v>0.564</v>
+        <v>-0.847</v>
       </c>
     </row>
     <row r="22">
@@ -2034,7 +2034,7 @@
         <v>1.074</v>
       </c>
       <c r="I22" t="n">
-        <v>0.454</v>
+        <v>-0.586</v>
       </c>
     </row>
   </sheetData>

--- a/df.EU.xlsx
+++ b/df.EU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="62">
   <si>
     <t>country</t>
   </si>
@@ -184,7 +184,22 @@
     <t>COSTe</t>
   </si>
   <si>
-    <t>VALUEe</t>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>NQ</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -1427,6 +1442,9 @@
       <c r="I1" t="s">
         <v>56</v>
       </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1453,8 +1471,11 @@
       <c r="H2" t="n">
         <v>0.875</v>
       </c>
-      <c r="I2" t="n">
-        <v>-0.55</v>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1482,8 +1503,11 @@
       <c r="H3" t="n">
         <v>1.295</v>
       </c>
-      <c r="I3" t="n">
-        <v>-0.757</v>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1511,8 +1535,11 @@
       <c r="H4" t="n">
         <v>1.536</v>
       </c>
-      <c r="I4" t="n">
-        <v>-1.103</v>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1540,8 +1567,11 @@
       <c r="H5" t="n">
         <v>1.352</v>
       </c>
-      <c r="I5" t="n">
-        <v>-0.747</v>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1569,8 +1599,11 @@
       <c r="H6" t="n">
         <v>1.022</v>
       </c>
-      <c r="I6" t="n">
-        <v>-0.391</v>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1598,8 +1631,11 @@
       <c r="H7" t="n">
         <v>0.873</v>
       </c>
-      <c r="I7" t="n">
-        <v>-0.373</v>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1627,8 +1663,11 @@
       <c r="H8" t="n">
         <v>1.162</v>
       </c>
-      <c r="I8" t="n">
-        <v>-0.837</v>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1656,8 +1695,11 @@
       <c r="H9" t="n">
         <v>1.131</v>
       </c>
-      <c r="I9" t="n">
-        <v>-0.641</v>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1685,8 +1727,11 @@
       <c r="H10" t="n">
         <v>1.081</v>
       </c>
-      <c r="I10" t="n">
-        <v>-0.687</v>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1714,8 +1759,11 @@
       <c r="H11" t="n">
         <v>0.881</v>
       </c>
-      <c r="I11" t="n">
-        <v>-0.345</v>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1743,8 +1791,11 @@
       <c r="H12" t="n">
         <v>1.318</v>
       </c>
-      <c r="I12" t="n">
-        <v>-0.847</v>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1772,8 +1823,11 @@
       <c r="H13" t="n">
         <v>0.947</v>
       </c>
-      <c r="I13" t="n">
-        <v>-0.28</v>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -1801,8 +1855,11 @@
       <c r="H14" t="n">
         <v>0.982</v>
       </c>
-      <c r="I14" t="n">
-        <v>-0.618</v>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -1830,8 +1887,11 @@
       <c r="H15" t="n">
         <v>1.238</v>
       </c>
-      <c r="I15" t="n">
-        <v>-0.738</v>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1859,8 +1919,11 @@
       <c r="H16" t="n">
         <v>1.212</v>
       </c>
-      <c r="I16" t="n">
-        <v>-0.9</v>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1888,8 +1951,11 @@
       <c r="H17" t="n">
         <v>1.105</v>
       </c>
-      <c r="I17" t="n">
-        <v>-0.654</v>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1917,8 +1983,11 @@
       <c r="H18" t="n">
         <v>1.314</v>
       </c>
-      <c r="I18" t="n">
-        <v>-0.93</v>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1946,8 +2015,11 @@
       <c r="H19" t="n">
         <v>1.018</v>
       </c>
-      <c r="I19" t="n">
-        <v>-0.281</v>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1975,8 +2047,11 @@
       <c r="H20" t="n">
         <v>1.255</v>
       </c>
-      <c r="I20" t="n">
-        <v>-0.541</v>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -2004,8 +2079,11 @@
       <c r="H21" t="n">
         <v>1.943</v>
       </c>
-      <c r="I21" t="n">
-        <v>-0.847</v>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -2033,8 +2111,11 @@
       <c r="H22" t="n">
         <v>1.074</v>
       </c>
-      <c r="I22" t="n">
-        <v>-0.586</v>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
